--- a/assets/timetable/timetable.xlsx
+++ b/assets/timetable/timetable.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="4-A" sheetId="1" state="visible" r:id="rId2"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="134">
   <si>
     <t xml:space="preserve">MAT-DIP / Maths-Dept / 510</t>
   </si>
@@ -316,6 +316,9 @@
   </si>
   <si>
     <t xml:space="preserve">522/523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Null</t>
   </si>
   <si>
     <t xml:space="preserve">SS&amp;CD / SSK / 521</t>
@@ -642,7 +645,7 @@
   <dimension ref="A1:H989"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F18" activeCellId="0" sqref="F18"/>
+      <selection pane="topLeft" activeCell="F18" activeCellId="1" sqref="H2 F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1807,7 +1810,7 @@
   <dimension ref="A1:Z989"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="H2 B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2989,7 +2992,7 @@
   <dimension ref="A1:Z989"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="H2 B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4175,7 +4178,7 @@
   <dimension ref="A1:Z989"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="H2 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5356,7 +5359,7 @@
   <dimension ref="A1:H1001"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="H2 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6752,8 +6755,8 @@
   </sheetPr>
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6785,118 +6788,146 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1"/>
+      <c r="A2" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="B2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F3" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="H3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2"/>
+      <c r="A4" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="B4" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F4" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="H4" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2"/>
+      <c r="A5" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="B5" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>105</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2"/>
+      <c r="A6" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="B6" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2"/>
+      <c r="A7" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="B7" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C7" s="3"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="2"/>
+      <c r="D7" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -7892,14 +7923,13 @@
     <row r="999" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1000" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
@@ -7918,8 +7948,8 @@
   </sheetPr>
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="H2 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7927,21 +7957,21 @@
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>113</v>
       </c>
       <c r="F1" s="3"/>
       <c r="G1" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I1" s="3"/>
       <c r="J1" s="2"/>
@@ -7973,17 +8003,17 @@
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="2"/>
       <c r="B4" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
@@ -8015,17 +8045,17 @@
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="2"/>
       <c r="B7" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="2"/>
@@ -8057,17 +8087,17 @@
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="2"/>
       <c r="B10" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="2"/>
@@ -8099,91 +8129,91 @@
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J13" s="2"/>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J14" s="2"/>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="J15" s="2"/>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="2"/>
@@ -8192,20 +8222,20 @@
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="2"/>
@@ -8214,20 +8244,20 @@
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="2"/>
@@ -9275,7 +9305,7 @@
   <dimension ref="A1:J1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="H2 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9283,21 +9313,21 @@
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>113</v>
       </c>
       <c r="F1" s="3"/>
       <c r="G1" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I1" s="3"/>
       <c r="J1" s="2"/>
@@ -9329,17 +9359,17 @@
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="2"/>
       <c r="B4" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
@@ -9371,17 +9401,17 @@
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="2"/>
       <c r="B7" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="2"/>
@@ -9413,17 +9443,17 @@
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="2"/>
       <c r="B10" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="2"/>
@@ -9455,91 +9485,91 @@
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>117</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="I13" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>117</v>
       </c>
       <c r="J13" s="2"/>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="J14" s="2"/>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="J15" s="2"/>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="2"/>
@@ -9548,20 +9578,20 @@
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="2"/>
@@ -9570,20 +9600,20 @@
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="2"/>
@@ -10631,7 +10661,7 @@
   <dimension ref="A1:J1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="H2 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10639,21 +10669,21 @@
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>113</v>
       </c>
       <c r="F1" s="3"/>
       <c r="G1" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I1" s="3"/>
       <c r="J1" s="2"/>
@@ -10685,17 +10715,17 @@
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="2"/>
       <c r="B4" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
@@ -10727,17 +10757,17 @@
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="2"/>
       <c r="B7" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="2"/>
@@ -10769,17 +10799,17 @@
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="2"/>
       <c r="B10" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="2"/>
@@ -10811,91 +10841,91 @@
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J13" s="2"/>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J14" s="2"/>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J15" s="2"/>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="2"/>
@@ -10904,20 +10934,20 @@
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="2"/>
@@ -10926,20 +10956,20 @@
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="2"/>
